--- a/public/downloads/Testicular cancer-LncRNA G4s data.xlsx
+++ b/public/downloads/Testicular cancer-LncRNA G4s data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Research Material/2. Project 2 - LncRNA-Cancer Database/2. Data with 16 cancers (including pancreatic cancer)/5. Duplicates removed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Desktop/Database/Received/5. Duplicates removed &amp; formatted_18.12.2023/Me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D80C1B9-5527-B341-98F3-C1EABB460EA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D6B3EF-4D41-094B-8360-2A465A8FD475}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="24480" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
   <si>
     <t>LncRNA Name</t>
   </si>
@@ -79,6 +79,96 @@
     <t>VALIDATED</t>
   </si>
   <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>qPCR, ISH etc.</t>
+  </si>
+  <si>
+    <t>ASM; BWS; WT2; ASM1; D11S813E; MIR675HG; LINC00008; NCRNA00008</t>
+  </si>
+  <si>
+    <t>NR_002196.2, NR_131223.1, NR_131224.1</t>
+  </si>
+  <si>
+    <t>REVIEWED</t>
+  </si>
+  <si>
+    <t>RFLP-PCR, Southern blot, DNA isolation etc.</t>
+  </si>
+  <si>
+    <t>MEG3</t>
+  </si>
+  <si>
+    <t>down-regulated</t>
+  </si>
+  <si>
+    <t>qPCR, RNAi, Western blot, Luciferase reporter assay, ISH, MTT assay etc.</t>
+  </si>
+  <si>
+    <t>maternally expressed 3; GTL2; NCRNA00023; LINC00023; onco-lncRNA-83; non-protein coding RNA 23; long intergenic non-protein coding RNA 23; maternally expressed 3 (non-protein coding); FP504; PRO0518; PRO2160; prebp1; Very putative protein from MEG3 locus; lnc-DLK1-35; NONHSAG015923.2; HSALNG0103778; HSALNG0103785</t>
+  </si>
+  <si>
+    <t>NR_002766.2, NR_003530.2, NR_003531.3, NR_033358.1, NR_033359.1, NR_033360.1, NR_046464.1, NR_046465.2, NR_046466.1, NR_046467.1, NR_046469.1, NR_046470.2, NR_046471.1, NR_046472.1, NR_046473.1</t>
+  </si>
+  <si>
+    <t>NLC1-C</t>
+  </si>
+  <si>
+    <t>Microarray, qPCR, RNAi, Western blot, Northern blot, RIP, RNA pull-down assay etc.</t>
+  </si>
+  <si>
+    <t>NLC1C; NLC1-C; PRED74; C21orf113; LINC00162; NCRNA00162; PICSAR</t>
+  </si>
+  <si>
+    <t>NR_024089.2</t>
+  </si>
+  <si>
+    <t>SPRY4-IT1</t>
+  </si>
+  <si>
+    <t>qPCR, Western blot, in vitro knockdown</t>
+  </si>
+  <si>
+    <t>SPRIGHTLY</t>
+  </si>
+  <si>
+    <t>NR_131221.1</t>
+  </si>
+  <si>
+    <t>XIST</t>
+  </si>
+  <si>
+    <t>SXI1; swd66; DXS1089; DXS399E; LINC00001; NCRNA00001</t>
+  </si>
+  <si>
+    <t>NR_001564.2</t>
+  </si>
+  <si>
+    <t>PubMed ID</t>
+  </si>
+  <si>
+    <t>QGRS Mapper Output, Max length - 45, Min G-group - 2</t>
+  </si>
+  <si>
+    <t>G4 Hunter Output, Window - 45, Threshold: 0.9</t>
+  </si>
+  <si>
+    <t>G4 Hunter Output, Window - 45, Threshold: 1.4</t>
+  </si>
+  <si>
+    <t>Testicular Cancer</t>
+  </si>
+  <si>
+    <t>Testicular Germ Cell Tumor</t>
+  </si>
+  <si>
+    <t>Testicular Embryonal Carcinoma</t>
+  </si>
+  <si>
+    <t>differentially expressed</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -91,24 +181,12 @@
     <t>0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>H19</t>
-  </si>
-  <si>
-    <t>qPCR, ISH etc.</t>
-  </si>
-  <si>
-    <t>ASM; BWS; WT2; ASM1; D11S813E; MIR675HG; LINC00008; NCRNA00008</t>
-  </si>
-  <si>
-    <t>NR_002196.2, NR_131223.1, NR_131224.1</t>
-  </si>
-  <si>
-    <t>REVIEWED</t>
-  </si>
-  <si>
     <t>38, 37, 12</t>
   </si>
   <si>
@@ -127,30 +205,12 @@
     <t>11, 11, 0</t>
   </si>
   <si>
-    <t>12, 12, 0</t>
+    <t>1, 1, 0</t>
   </si>
   <si>
     <t>0, 0, 0</t>
   </si>
   <si>
-    <t>RFLP-PCR, Southern blot, DNA isolation etc.</t>
-  </si>
-  <si>
-    <t>MEG3</t>
-  </si>
-  <si>
-    <t>down-regulated</t>
-  </si>
-  <si>
-    <t>qPCR, RNAi, Western blot, Luciferase reporter assay, ISH, MTT assay etc.</t>
-  </si>
-  <si>
-    <t>maternally expressed 3; GTL2; NCRNA00023; LINC00023; onco-lncRNA-83; non-protein coding RNA 23; long intergenic non-protein coding RNA 23; maternally expressed 3 (non-protein coding); FP504; PRO0518; PRO2160; prebp1; Very putative protein from MEG3 locus; lnc-DLK1-35; NONHSAG015923.2; HSALNG0103778; HSALNG0103785</t>
-  </si>
-  <si>
-    <t>NR_002766.2, NR_003530.2, NR_003531.3, NR_033358.1, NR_033359.1, NR_033360.1, NR_046464.1, NR_046465.2, NR_046466.1, NR_046467.1, NR_046469.1, NR_046470.2, NR_046471.1, NR_046472.1, NR_046473.1</t>
-  </si>
-  <si>
     <t>16, 19, 18, 17, 17, 17, 17, 17, 17, 18, 17, 19, 17, 18, 93</t>
   </si>
   <si>
@@ -175,77 +235,20 @@
     <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5</t>
   </si>
   <si>
-    <t>NLC1-C</t>
-  </si>
-  <si>
-    <t>Microarray, qPCR, RNAi, Western blot, Northern blot, RIP, RNA pull-down assay etc.</t>
-  </si>
-  <si>
-    <t>NLC1C; NLC1-C; PRED74; C21orf113; LINC00162; NCRNA00162; PICSAR</t>
-  </si>
-  <si>
-    <t>NR_024089.2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>SPRY4-IT1</t>
-  </si>
-  <si>
-    <t>qPCR, Western blot, in vitro knockdown</t>
-  </si>
-  <si>
-    <t>SPRIGHTLY</t>
-  </si>
-  <si>
-    <t>NR_131221.1</t>
-  </si>
-  <si>
-    <t>XIST</t>
-  </si>
-  <si>
-    <t>SXI1; swd66; DXS1089; DXS399E; LINC00001; NCRNA00001</t>
-  </si>
-  <si>
-    <t>NR_001564.2</t>
-  </si>
-  <si>
     <t>71</t>
-  </si>
-  <si>
-    <t>PubMed ID</t>
-  </si>
-  <si>
-    <t>QGRS Mapper Output, Max length - 45, Min G-group - 2</t>
-  </si>
-  <si>
-    <t>G4 Hunter Output, Window - 45, Threshold: 0.9</t>
-  </si>
-  <si>
-    <t>G4 Hunter Output, Window - 45, Threshold: 1.4</t>
-  </si>
-  <si>
-    <t>Testicular Cancer</t>
-  </si>
-  <si>
-    <t>Testicular Germ Cell Tumor</t>
-  </si>
-  <si>
-    <t>Testicular Embryonal Carcinoma</t>
-  </si>
-  <si>
-    <t>differentially expressed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -296,6 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,11 +608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -622,7 +628,7 @@
     <col min="18" max="21" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28" customHeight="1">
+    <row r="1" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -636,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -651,25 +657,25 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21" ht="28">
+    <row r="2" spans="1:21" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -716,12 +722,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="224">
+    <row r="3" spans="1:21" ht="224" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -744,55 +750,55 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="96">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>9010236</v>
@@ -801,60 +807,60 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="96">
+    <row r="5" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -866,63 +872,63 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="96">
+    <row r="6" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>8797887</v>
@@ -931,63 +937,63 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="395" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="395">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="2">
         <v>27158395</v>
@@ -996,63 +1002,63 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="96">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>26539909</v>
@@ -1061,63 +1067,63 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>21</v>
+      <c r="J8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="48">
+    <row r="9" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>29410498</v>
@@ -1126,60 +1132,60 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="80">
+    <row r="10" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -1191,57 +1197,57 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="80">
+    <row r="11" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1256,63 +1262,63 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="80">
+    <row r="12" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>9250171</v>
@@ -1321,49 +1327,49 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
